--- a/data/s0/Annelinn/archetypes/pop_archetypes_family.xlsx
+++ b/data/s0/Annelinn/archetypes/pop_archetypes_family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB789C15-FAF9-467B-9D03-5044B38B6A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD5EBE3-DA1D-47B7-B027-8AB681384FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -121,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,7 +149,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,15 +433,15 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -448,25 +454,25 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -477,22 +483,22 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>20</v>
+      <c r="C2" s="1">
+        <v>13583</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -503,19 +509,19 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="C3" s="1">
+        <v>2648</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
@@ -526,16 +532,16 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" s="1">
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
@@ -546,16 +552,16 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" s="1">
+        <v>781</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
@@ -566,13 +572,13 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>6</v>
+      <c r="C6" s="1">
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -583,13 +589,13 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>15</v>
+      <c r="C7" s="1">
+        <v>2540</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -600,19 +606,19 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>5</v>
+      <c r="C8" s="1">
+        <v>820</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -623,16 +629,16 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>10</v>
+      <c r="C9" s="1">
+        <v>9237</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
